--- a/testData/loginminthr.xlsx
+++ b/testData/loginminthr.xlsx
@@ -3,31 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse-workspace\MintHRsuperAdmin\testData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A45C1197-ACF1-48A2-B2BF-6FF33437C176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{D1E03483-F3B5-4C32-AFF2-57366109D204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{043DB3DB-BC54-467B-8390-182610E66946}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -54,18 +41,12 @@
     <t>Superadmin</t>
   </si>
   <si>
-    <t>prematp@gmail.com</t>
-  </si>
-  <si>
     <t>Sudhir*#883</t>
   </si>
   <si>
     <t>Employee</t>
   </si>
   <si>
-    <t>selvaperuvaje@gmail.com</t>
-  </si>
-  <si>
     <t>Thamilu#456</t>
   </si>
   <si>
@@ -112,6 +93,12 @@
   </si>
   <si>
     <t>dfgh</t>
+  </si>
+  <si>
+    <t>adrsh34@gmail.com</t>
+  </si>
+  <si>
+    <t>selvaperuva#$@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -201,7 +188,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -210,7 +197,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -529,7 +515,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -563,84 +549,84 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -656,26 +642,24 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>17</v>
+        <v>23</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A4" r:id="rId1" xr:uid="{0FAE8C31-8F8E-4AA9-A2B0-D6BFBDCB4BDB}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{44F8772E-5946-4719-B369-945358D1ABE2}"/>
-    <hyperlink ref="B2" r:id="rId3" xr:uid="{79506558-B245-4A83-AB8C-333A642C9D65}"/>
-    <hyperlink ref="A5" r:id="rId4" xr:uid="{48087BE4-EFE6-45FD-9E11-39CFE1E86893}"/>
-    <hyperlink ref="A6" r:id="rId5" xr:uid="{8EACE26A-4445-4ABB-8F2D-E4A5E4026029}"/>
-    <hyperlink ref="A7" r:id="rId6" xr:uid="{06A7FD6C-E5E5-4712-80DC-0A551573704A}"/>
-    <hyperlink ref="A8" r:id="rId7" xr:uid="{5A0C5607-AB68-41CF-9101-BFD72D02BA53}"/>
-    <hyperlink ref="A9" r:id="rId8" xr:uid="{FD1DAE1C-FB0E-4BEA-8C5B-7D977FE30F1A}"/>
-    <hyperlink ref="B11" r:id="rId9" xr:uid="{5021CF1A-B152-420E-ABC5-2E72E8B8A5FB}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{79506558-B245-4A83-AB8C-333A642C9D65}"/>
+    <hyperlink ref="A5" r:id="rId2" xr:uid="{48087BE4-EFE6-45FD-9E11-39CFE1E86893}"/>
+    <hyperlink ref="A6" r:id="rId3" xr:uid="{8EACE26A-4445-4ABB-8F2D-E4A5E4026029}"/>
+    <hyperlink ref="A7" r:id="rId4" xr:uid="{06A7FD6C-E5E5-4712-80DC-0A551573704A}"/>
+    <hyperlink ref="A8" r:id="rId5" xr:uid="{5A0C5607-AB68-41CF-9101-BFD72D02BA53}"/>
+    <hyperlink ref="A9" r:id="rId6" xr:uid="{FD1DAE1C-FB0E-4BEA-8C5B-7D977FE30F1A}"/>
+    <hyperlink ref="B11" r:id="rId7" xr:uid="{5021CF1A-B152-420E-ABC5-2E72E8B8A5FB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
